--- a/Documentação/Planilhas/Layouts/Entrega_Garantida.xlsx
+++ b/Documentação/Planilhas/Layouts/Entrega_Garantida.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="864" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="864"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="93" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="75">
   <si>
     <t>Campo</t>
   </si>
@@ -195,6 +195,51 @@
   </si>
   <si>
     <t>Identifica o meio de pagamento através da sua descrição. Ex: Cartão de Crédito, Boleto, etc</t>
+  </si>
+  <si>
+    <t>Identifica a unidade federativa da entrega através da sua sigla. Ex: SP, RJ, etc</t>
+  </si>
+  <si>
+    <t>Identifica a cidade da entrega através da sua descrição. Ex: São Paulo, Baureri, SP</t>
+  </si>
+  <si>
+    <t>Identifica a Mega Rota através da sua sigla. Ex: BR, SP, etc</t>
+  </si>
+  <si>
+    <t>Valor do Produto</t>
+  </si>
+  <si>
+    <t>Identifica o site através da sua sigla. Ex: ETR, etc</t>
+  </si>
+  <si>
+    <t>Identifica o status WMS através da sua descrição. Ex: Liquidação do Pedido, etc</t>
+  </si>
+  <si>
+    <t>Identifica a data do pedido no formato AAAA-MM-DD HH:MM:SSS</t>
+  </si>
+  <si>
+    <t>Identifica a data da aprovação no formato AAAA-MM-DD HH:MM:SSS</t>
+  </si>
+  <si>
+    <t>Identifica a data do evento ETR no formato AAAA-MM-DD HH:MM:SSS</t>
+  </si>
+  <si>
+    <t>Identifica o canal de venda através da sua descrição. Ex: B2C Extra, B2C Casas Bahia, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Filial através do seu código. Ex: 2, 4, 10, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Transportadora através da sua razão social. Ex: DTD DISTRIBUICAO E COURIER LTDA, TOPLOG LOGISTICA E TRANSPORTE RODOVIARIO, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Nota Fiscal através do seu número. Ex: 69101, 34838, 34859, etc</t>
+  </si>
+  <si>
+    <t>Identifica a série da Nota Fiscal através do seu número. Ex: 112, 142, 146, etc</t>
+  </si>
+  <si>
+    <t>Identifica a data prometida no formato AAAA-MM-DD HH:MM:SSS</t>
   </si>
 </sst>
 </file>
@@ -908,8 +953,8 @@
   </sheetPr>
   <dimension ref="B2:E10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D4" sqref="B4:D8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -998,7 +1043,7 @@
     <sortCondition ref="B3"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="B3" location="aux_fact_pontualidade_update!A1" display="aux_fact_pontualidade_update!A1"/>
+    <hyperlink ref="B3" location="tb_entrega_garantida!A1" display="tb_entrega_garantida!A1"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1011,9 +1056,7 @@
   </sheetPr>
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -1173,7 +1216,9 @@
       <c r="A20" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="21"/>
+      <c r="B20" s="21" t="s">
+        <v>60</v>
+      </c>
       <c r="D20" s="6" t="s">
         <v>15</v>
       </c>
@@ -1185,7 +1230,9 @@
       <c r="A21" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="21"/>
+      <c r="B21" s="21" t="s">
+        <v>61</v>
+      </c>
       <c r="D21" s="6" t="s">
         <v>15</v>
       </c>
@@ -1197,7 +1244,9 @@
       <c r="A22" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="21"/>
+      <c r="B22" s="21" t="s">
+        <v>62</v>
+      </c>
       <c r="D22" s="6" t="s">
         <v>15</v>
       </c>
@@ -1209,7 +1258,9 @@
       <c r="A23" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="21"/>
+      <c r="B23" s="21" t="s">
+        <v>63</v>
+      </c>
       <c r="D23" s="6" t="s">
         <v>15</v>
       </c>
@@ -1221,7 +1272,9 @@
       <c r="A24" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="21"/>
+      <c r="B24" s="21" t="s">
+        <v>64</v>
+      </c>
       <c r="D24" s="6" t="s">
         <v>15</v>
       </c>
@@ -1233,7 +1286,9 @@
       <c r="A25" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="21"/>
+      <c r="B25" s="21" t="s">
+        <v>65</v>
+      </c>
       <c r="D25" s="6" t="s">
         <v>15</v>
       </c>
@@ -1245,7 +1300,9 @@
       <c r="A26" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="21"/>
+      <c r="B26" s="21" t="s">
+        <v>66</v>
+      </c>
       <c r="D26" s="6" t="s">
         <v>15</v>
       </c>
@@ -1257,7 +1314,9 @@
       <c r="A27" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="21"/>
+      <c r="B27" s="21" t="s">
+        <v>67</v>
+      </c>
       <c r="D27" s="6" t="s">
         <v>15</v>
       </c>
@@ -1269,7 +1328,9 @@
       <c r="A28" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="21"/>
+      <c r="B28" s="21" t="s">
+        <v>68</v>
+      </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
     </row>
@@ -1277,7 +1338,9 @@
       <c r="A29" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="21"/>
+      <c r="B29" s="21" t="s">
+        <v>69</v>
+      </c>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
     </row>
@@ -1285,31 +1348,41 @@
       <c r="A30" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="21"/>
+      <c r="B30" s="21" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="30" customHeight="1">
       <c r="A31" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="21"/>
+      <c r="B31" s="21" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="32" spans="1:5" ht="30" customHeight="1">
       <c r="A32" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="21"/>
+      <c r="B32" s="21" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="33" spans="1:2" ht="30" customHeight="1">
       <c r="A33" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="21"/>
+      <c r="B33" s="21" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="34" spans="1:2" ht="30" customHeight="1">
       <c r="A34" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="24"/>
+      <c r="B34" s="24" t="s">
+        <v>74</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
